--- a/Historicos/Pob.15ymás.xlsx
+++ b/Historicos/Pob.15ymás.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -763,6 +763,17 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,20 +783,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1134,8 +1134,8 @@
   <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN19" sqref="BN19"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,171 +1275,171 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
     </row>
     <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="23">
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="28">
         <v>2019</v>
       </c>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="25">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26">
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25">
         <v>2021</v>
       </c>
-      <c r="BN4" s="26"/>
+      <c r="BN4" s="25"/>
     </row>
     <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1700,11 +1700,11 @@
       <c r="BG6" s="21"/>
       <c r="BH6" s="21"/>
       <c r="BI6" s="21"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="30"/>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
     </row>
     <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2907,71 +2907,71 @@
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -2985,6 +2985,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -3001,10 +3005,6 @@
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A13:BK13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymás.xlsx
+++ b/Historicos/Pob.15ymás.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -763,17 +763,6 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,9 +772,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1134,8 +1134,8 @@
   <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN19" sqref="BN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,171 +1275,171 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
     </row>
     <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>2005</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2006</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
         <v>2007</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
         <v>2008</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>2009</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26">
         <v>2010</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
         <v>2011</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>2012</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26">
         <v>2013</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26">
         <v>2014</v>
       </c>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25">
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26">
         <v>2016</v>
       </c>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25">
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26">
         <v>2017</v>
       </c>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26">
         <v>2018</v>
       </c>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="28">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="23">
         <v>2019</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="25">
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="26">
         <v>2020</v>
       </c>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25">
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26">
         <v>2021</v>
       </c>
-      <c r="BN4" s="25"/>
+      <c r="BN4" s="26"/>
     </row>
     <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1700,11 +1700,11 @@
       <c r="BG6" s="21"/>
       <c r="BH6" s="21"/>
       <c r="BI6" s="21"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23"/>
-      <c r="BN6" s="23"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
     </row>
     <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2907,71 +2907,71 @@
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="27"/>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="27"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -2985,10 +2985,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -3005,6 +3001,10 @@
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A13:BK13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
